--- a/mosip_master/xlsx/registration_center.xlsx
+++ b/mosip_master/xlsx/registration_center.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9A76F-F8C1-4E1B-B09E-439D9ADC7D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C583C-D8CA-43B6-B424-871094139CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -175,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,7 +542,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,10 +665,10 @@
         <v>29</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.255436</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.6027810000000002</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
